--- a/Term2/Optimization/CTRSolves.xlsx
+++ b/Term2/Optimization/CTRSolves.xlsx
@@ -8,159 +8,506 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dks/AMPBA/Term2/Optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EB99FD-CA92-8C4B-BBBA-A9A75526F627}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A855B3-B231-7C44-89CF-74AD2879F192}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46000" yWindow="-18900" windowWidth="40040" windowHeight="25100" activeTab="4" xr2:uid="{5BFAA3BA-9E0C-EC47-86BA-10D4FD1B66FE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34920" windowHeight="21900" activeTab="11" xr2:uid="{5BFAA3BA-9E0C-EC47-86BA-10D4FD1B66FE}"/>
   </bookViews>
   <sheets>
-    <sheet name="3-11 " sheetId="1" r:id="rId1"/>
-    <sheet name="2-20" sheetId="2" r:id="rId2"/>
-    <sheet name="3 -14" sheetId="3" r:id="rId3"/>
-    <sheet name="3-18" sheetId="4" r:id="rId4"/>
-    <sheet name="3-20" sheetId="5" r:id="rId5"/>
-    <sheet name="3-24" sheetId="6" r:id="rId6"/>
+    <sheet name="Tutorial-1" sheetId="7" r:id="rId1"/>
+    <sheet name="Tutorial-2" sheetId="8" r:id="rId2"/>
+    <sheet name="3-11 " sheetId="1" r:id="rId3"/>
+    <sheet name="2-20" sheetId="2" r:id="rId4"/>
+    <sheet name="3 -14" sheetId="3" r:id="rId5"/>
+    <sheet name="3-18" sheetId="4" r:id="rId6"/>
+    <sheet name="3-17" sheetId="13" r:id="rId7"/>
+    <sheet name="3-20" sheetId="5" r:id="rId8"/>
+    <sheet name="3-21" sheetId="14" r:id="rId9"/>
+    <sheet name="3-24" sheetId="6" r:id="rId10"/>
+    <sheet name="Sensitivity Report 1" sheetId="18" r:id="rId11"/>
+    <sheet name="3-25" sheetId="15" r:id="rId12"/>
+    <sheet name="3-43" sheetId="10" r:id="rId13"/>
+    <sheet name="3-44" sheetId="11" r:id="rId14"/>
+    <sheet name="3-45" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'2-20'!$B$1:$B$2</definedName>
-    <definedName name="solver_adj" localSheetId="2" hidden="1">'3 -14'!$B$9:$B$10</definedName>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'3-11 '!$B$13:$D$15</definedName>
-    <definedName name="solver_adj" localSheetId="3" hidden="1">'3-18'!$B$2:$B$6</definedName>
+    <definedName name="solver_adj" localSheetId="3" hidden="1">'2-20'!$B$1:$B$2</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'3 -14'!$B$9:$B$10</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'3-11 '!$B$13:$D$15</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">'3-17'!$B$8:$B$10</definedName>
+    <definedName name="solver_adj" localSheetId="5" hidden="1">'3-18'!$B$2:$B$6</definedName>
+    <definedName name="solver_adj" localSheetId="7" hidden="1">'3-20'!$F$2:$H$3</definedName>
+    <definedName name="solver_adj" localSheetId="8" hidden="1">'3-21'!$B$2:$F$2</definedName>
+    <definedName name="solver_adj" localSheetId="9" hidden="1">'3-24'!$B$2:$B$5</definedName>
+    <definedName name="solver_adj" localSheetId="11" hidden="1">'3-25'!$B$2:$B$7</definedName>
+    <definedName name="solver_adj" localSheetId="12" hidden="1">'3-43'!$B$21:$B$35</definedName>
+    <definedName name="solver_adj" localSheetId="13" hidden="1">'3-44'!$B$22:$B$36</definedName>
+    <definedName name="solver_adj" localSheetId="14" hidden="1">'3-45'!$B$6:$K$6,'3-45'!$B$8:$K$8</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Tutorial-1'!$B$1:$B$2</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Tutorial-2'!$B$2:$B$3</definedName>
+    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="8" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="9" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="11" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="12" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="13" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="14" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="12" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="11" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="12" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="14" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="11" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="12" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="13" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="14" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'2-20'!$B$10:$B$11</definedName>
-    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'3 -14'!$B$11:$B$12</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'3-11 '!$I$11:$I$13</definedName>
-    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'3-18'!$B$12</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'2-20'!$B$9</definedName>
-    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'3 -14'!$B$13:$B$15</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'3-11 '!$I$8:$I$10</definedName>
-    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'3-18'!$B$13:$B$16</definedName>
-    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'3 -14'!$B$13:$B$15</definedName>
-    <definedName name="solver_lhs3" localSheetId="3" hidden="1">'3-18'!$B$19:$B$23</definedName>
-    <definedName name="solver_lhs4" localSheetId="2" hidden="1">'3 -14'!$B$9</definedName>
-    <definedName name="solver_lhs4" localSheetId="3" hidden="1">'3-18'!$B$27:$B$31</definedName>
+    <definedName name="solver_lhs1" localSheetId="3" hidden="1">'2-20'!$B$10:$B$11</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'3 -14'!$B$11:$B$12</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'3-11 '!$I$11:$I$13</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">'3-17'!$B$12:$B$15</definedName>
+    <definedName name="solver_lhs1" localSheetId="5" hidden="1">'3-18'!$B$12</definedName>
+    <definedName name="solver_lhs1" localSheetId="7" hidden="1">'3-20'!$B$11:$B$16</definedName>
+    <definedName name="solver_lhs1" localSheetId="8" hidden="1">'3-21'!$B$15:$B$18</definedName>
+    <definedName name="solver_lhs1" localSheetId="9" hidden="1">'3-24'!$B$11:$B$17</definedName>
+    <definedName name="solver_lhs1" localSheetId="11" hidden="1">'3-25'!$B$11:$B$14</definedName>
+    <definedName name="solver_lhs1" localSheetId="12" hidden="1">'3-43'!$B$41:$B$44</definedName>
+    <definedName name="solver_lhs1" localSheetId="13" hidden="1">'3-44'!$B$22</definedName>
+    <definedName name="solver_lhs1" localSheetId="14" hidden="1">'3-45'!$B$16:$B$47</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Tutorial-1'!$B$12:$B$14</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Tutorial-2'!$B$8</definedName>
+    <definedName name="solver_lhs2" localSheetId="3" hidden="1">'2-20'!$B$9</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'3 -14'!$B$13:$B$15</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'3-11 '!$I$8:$I$10</definedName>
+    <definedName name="solver_lhs2" localSheetId="5" hidden="1">'3-18'!$B$13:$B$16</definedName>
+    <definedName name="solver_lhs2" localSheetId="7" hidden="1">'3-20'!$B$8:$B$10</definedName>
+    <definedName name="solver_lhs2" localSheetId="8" hidden="1">'3-21'!$B$19:$B$24</definedName>
+    <definedName name="solver_lhs2" localSheetId="9" hidden="1">'3-24'!$B$28:$B$29</definedName>
+    <definedName name="solver_lhs2" localSheetId="11" hidden="1">'3-25'!$B$15:$B$21</definedName>
+    <definedName name="solver_lhs2" localSheetId="12" hidden="1">'3-43'!$B$45:$B$51</definedName>
+    <definedName name="solver_lhs2" localSheetId="13" hidden="1">'3-44'!$B$30</definedName>
+    <definedName name="solver_lhs2" localSheetId="14" hidden="1">'3-45'!$B$48:$B$57</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Tutorial-2'!$C$4:$D$4</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'3 -14'!$B$13:$B$15</definedName>
+    <definedName name="solver_lhs3" localSheetId="5" hidden="1">'3-18'!$B$19:$B$23</definedName>
+    <definedName name="solver_lhs3" localSheetId="9" hidden="1">'3-24'!$B$9:$B$10</definedName>
+    <definedName name="solver_lhs3" localSheetId="11" hidden="1">'3-25'!$B$22:$B$25</definedName>
+    <definedName name="solver_lhs3" localSheetId="13" hidden="1">'3-44'!$B$34</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">'3 -14'!$B$9</definedName>
+    <definedName name="solver_lhs4" localSheetId="5" hidden="1">'3-18'!$B$27:$B$31</definedName>
+    <definedName name="solver_lhs4" localSheetId="11" hidden="1">'3-25'!$B$2:$B$7</definedName>
+    <definedName name="solver_lhs4" localSheetId="13" hidden="1">'3-44'!$B$36</definedName>
+    <definedName name="solver_lhs5" localSheetId="13" hidden="1">'3-44'!$B$42:$B$45</definedName>
+    <definedName name="solver_lhs6" localSheetId="13" hidden="1">'3-44'!$B$46:$B$52</definedName>
+    <definedName name="solver_lhs7" localSheetId="13" hidden="1">'3-44'!$B$53:$B$57</definedName>
+    <definedName name="solver_lin" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="12" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_lin" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_lin" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="11" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="12" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="13" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="14" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="8" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="9" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="11" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="12" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="13" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="14" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="8" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="9" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="11" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="12" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="13" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="14" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="11" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="12" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="14" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="12" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="11" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="12" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="13" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="14" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="5" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="9" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="11" hidden="1">4</definedName>
+    <definedName name="solver_num" localSheetId="12" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="13" hidden="1">7</definedName>
+    <definedName name="solver_num" localSheetId="14" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_num" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_num" localSheetId="3" hidden="1">4</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'2-20'!$B$6</definedName>
-    <definedName name="solver_opt" localSheetId="2" hidden="1">'3 -14'!$B$18</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'3-11 '!$E$11</definedName>
-    <definedName name="solver_opt" localSheetId="3" hidden="1">'3-18'!$B$9</definedName>
+    <definedName name="solver_opt" localSheetId="3" hidden="1">'2-20'!$B$6</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">'3 -14'!$B$18</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'3-11 '!$E$11</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">'3-17'!$B$11</definedName>
+    <definedName name="solver_opt" localSheetId="5" hidden="1">'3-18'!$B$9</definedName>
+    <definedName name="solver_opt" localSheetId="7" hidden="1">'3-20'!$B$6</definedName>
+    <definedName name="solver_opt" localSheetId="8" hidden="1">'3-21'!$B$13</definedName>
+    <definedName name="solver_opt" localSheetId="9" hidden="1">'3-24'!$B$7</definedName>
+    <definedName name="solver_opt" localSheetId="11" hidden="1">'3-25'!$B$9</definedName>
+    <definedName name="solver_opt" localSheetId="12" hidden="1">'3-43'!$B$38</definedName>
+    <definedName name="solver_opt" localSheetId="13" hidden="1">'3-44'!$B$39</definedName>
+    <definedName name="solver_opt" localSheetId="14" hidden="1">'3-45'!$B$13</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Tutorial-1'!$B$10</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Tutorial-2'!$E$4</definedName>
+    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="8" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="9" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="11" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="12" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="13" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="14" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="12" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="11" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="12" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="13" hidden="1">4</definedName>
+    <definedName name="solver_rel1" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rel3" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_rel3" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rel4" localSheetId="2" hidden="1">4</definedName>
-    <definedName name="solver_rel4" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'2-20'!$D$10:$D$11</definedName>
-    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'3 -14'!$D$11:$D$12</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'3-11 '!$K$11:$K$13</definedName>
-    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'3-18'!$D$12</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'2-20'!$D$9</definedName>
-    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'3 -14'!$D$13:$D$15</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">'3-11 '!$K$8:$K$10</definedName>
-    <definedName name="solver_rhs2" localSheetId="3" hidden="1">'3-18'!$D$13:$D$16</definedName>
-    <definedName name="solver_rhs3" localSheetId="2" hidden="1">'3 -14'!$D$13:$D$15</definedName>
-    <definedName name="solver_rhs3" localSheetId="3" hidden="1">'3-18'!$D$19:$D$23</definedName>
-    <definedName name="solver_rhs4" localSheetId="2" hidden="1">integer</definedName>
-    <definedName name="solver_rhs4" localSheetId="3" hidden="1">'3-18'!$D$27:$D$31</definedName>
+    <definedName name="solver_rel2" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="8" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="12" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="13" hidden="1">4</definedName>
+    <definedName name="solver_rel2" localSheetId="14" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="5" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="9" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="11" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="13" hidden="1">4</definedName>
+    <definedName name="solver_rel4" localSheetId="4" hidden="1">4</definedName>
+    <definedName name="solver_rel4" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="11" hidden="1">4</definedName>
+    <definedName name="solver_rel4" localSheetId="13" hidden="1">4</definedName>
+    <definedName name="solver_rel5" localSheetId="13" hidden="1">3</definedName>
+    <definedName name="solver_rel6" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_rel7" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="3" hidden="1">'2-20'!$D$10:$D$11</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">'3 -14'!$D$11:$D$12</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">'3-11 '!$K$11:$K$13</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">'3-17'!$D$12:$D$15</definedName>
+    <definedName name="solver_rhs1" localSheetId="5" hidden="1">'3-18'!$D$12</definedName>
+    <definedName name="solver_rhs1" localSheetId="7" hidden="1">'3-20'!$D$11:$D$16</definedName>
+    <definedName name="solver_rhs1" localSheetId="8" hidden="1">'3-21'!$D$15:$D$18</definedName>
+    <definedName name="solver_rhs1" localSheetId="9" hidden="1">'3-24'!$D$11:$D$17</definedName>
+    <definedName name="solver_rhs1" localSheetId="11" hidden="1">'3-25'!$D$11:$D$14</definedName>
+    <definedName name="solver_rhs1" localSheetId="12" hidden="1">'3-43'!$D$41:$D$44</definedName>
+    <definedName name="solver_rhs1" localSheetId="13" hidden="1">integer</definedName>
+    <definedName name="solver_rhs1" localSheetId="14" hidden="1">'3-45'!$D$16:$D$47</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Tutorial-1'!$D$12:$D$14</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Tutorial-2'!$D$8</definedName>
+    <definedName name="solver_rhs2" localSheetId="3" hidden="1">'2-20'!$D$9</definedName>
+    <definedName name="solver_rhs2" localSheetId="4" hidden="1">'3 -14'!$D$13:$D$15</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">'3-11 '!$K$8:$K$10</definedName>
+    <definedName name="solver_rhs2" localSheetId="5" hidden="1">'3-18'!$D$13:$D$16</definedName>
+    <definedName name="solver_rhs2" localSheetId="7" hidden="1">'3-20'!$D$8:$D$10</definedName>
+    <definedName name="solver_rhs2" localSheetId="8" hidden="1">'3-21'!$D$19:$D$24</definedName>
+    <definedName name="solver_rhs2" localSheetId="9" hidden="1">'3-24'!$D$28:$D$29</definedName>
+    <definedName name="solver_rhs2" localSheetId="11" hidden="1">'3-25'!$D$15:$D$21</definedName>
+    <definedName name="solver_rhs2" localSheetId="12" hidden="1">'3-43'!$D$45:$D$51</definedName>
+    <definedName name="solver_rhs2" localSheetId="13" hidden="1">integer</definedName>
+    <definedName name="solver_rhs2" localSheetId="14" hidden="1">'3-45'!$D$48:$D$57</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">'Tutorial-2'!$C$6:$D$6</definedName>
+    <definedName name="solver_rhs3" localSheetId="4" hidden="1">'3 -14'!$D$13:$D$15</definedName>
+    <definedName name="solver_rhs3" localSheetId="5" hidden="1">'3-18'!$D$19:$D$23</definedName>
+    <definedName name="solver_rhs3" localSheetId="9" hidden="1">'3-24'!$D$9:$D$10</definedName>
+    <definedName name="solver_rhs3" localSheetId="11" hidden="1">'3-25'!$D$22:$D$25</definedName>
+    <definedName name="solver_rhs3" localSheetId="13" hidden="1">integer</definedName>
+    <definedName name="solver_rhs4" localSheetId="4" hidden="1">integer</definedName>
+    <definedName name="solver_rhs4" localSheetId="5" hidden="1">'3-18'!$D$27:$D$31</definedName>
+    <definedName name="solver_rhs4" localSheetId="11" hidden="1">integer</definedName>
+    <definedName name="solver_rhs4" localSheetId="13" hidden="1">integer</definedName>
+    <definedName name="solver_rhs5" localSheetId="13" hidden="1">'3-44'!$D$42:$D$45</definedName>
+    <definedName name="solver_rhs6" localSheetId="13" hidden="1">'3-44'!$D$46:$D$52</definedName>
+    <definedName name="solver_rhs7" localSheetId="13" hidden="1">'3-44'!$D$53:$D$57</definedName>
+    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="11" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="12" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="14" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="8" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="11" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="12" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="13" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="14" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="12" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="13" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="11" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="12" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="14" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="8" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="9" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="11" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="12" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="13" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="14" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="8" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="9" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="11" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="12" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="13" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="14" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="8" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="9" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="11" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="12" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="13" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="14" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="8" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="9" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="12" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="14" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="9" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="11" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="12" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="13" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="14" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="5" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="8" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="9" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="11" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="12" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="13" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="14" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -181,7 +528,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="323">
   <si>
     <t>M</t>
   </si>
@@ -396,19 +743,10 @@
     <t>nuts in W = 0.6 of weight</t>
   </si>
   <si>
-    <t>nuts in C = 0.4</t>
-  </si>
-  <si>
     <t>nuts in H  = 0.2</t>
   </si>
   <si>
     <t>nuts in R = 1</t>
-  </si>
-  <si>
-    <t>nuts = 1100</t>
-  </si>
-  <si>
-    <t>choc = 800</t>
   </si>
   <si>
     <t>HULL</t>
@@ -447,12 +785,735 @@
     <t>Total Profit
 300000*0.05*T + 500000*0.05*M - 5000*T-2000*M</t>
   </si>
+  <si>
+    <t>Qty of 27" TV</t>
+  </si>
+  <si>
+    <t>Qty of 20" TV</t>
+  </si>
+  <si>
+    <t>Hours taken by 27"</t>
+  </si>
+  <si>
+    <t>Hours taken by 20"</t>
+  </si>
+  <si>
+    <t>profit of 27"</t>
+  </si>
+  <si>
+    <t>profit of 20"</t>
+  </si>
+  <si>
+    <t>Total Profit= 120T1+80T2</t>
+  </si>
+  <si>
+    <t>27" can not be more than 40</t>
+  </si>
+  <si>
+    <t>20" can not be more than 10</t>
+  </si>
+  <si>
+    <t>Total Work hours are 500</t>
+  </si>
+  <si>
+    <t>Type A qty</t>
+  </si>
+  <si>
+    <t>Type B qty</t>
+  </si>
+  <si>
+    <t>Cal</t>
+  </si>
+  <si>
+    <t>Vit</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingredient A can not be more than 1/3rd </t>
+  </si>
+  <si>
+    <t>nuts in 1 C = 0.4, total nuts in C</t>
+  </si>
+  <si>
+    <t>choc in W = 0.4 of weight</t>
+  </si>
+  <si>
+    <t>chocs in C=0.6</t>
+  </si>
+  <si>
+    <t>choc in H  = 0.8</t>
+  </si>
+  <si>
+    <t>choc in R = 0</t>
+  </si>
+  <si>
+    <t>Time Constraints</t>
+  </si>
+  <si>
+    <t>Time in minutes for HULL machine</t>
+  </si>
+  <si>
+    <t>Time in minutes for PACK machine</t>
+  </si>
+  <si>
+    <t>Time in minutes for COAT machine</t>
+  </si>
+  <si>
+    <t>Time in minutes for ROAST machine</t>
+  </si>
+  <si>
+    <t>total nuts usage = 1100</t>
+  </si>
+  <si>
+    <t>total chocs usage = 800</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Objective Function 1.85W+1.4C+1.04H+1.4R</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Y3</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Y4</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>B34</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>Y5</t>
+  </si>
+  <si>
+    <t>Y6</t>
+  </si>
+  <si>
+    <t>Y7</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>B56</t>
+  </si>
+  <si>
+    <t>C123</t>
+  </si>
+  <si>
+    <t>C456</t>
+  </si>
+  <si>
+    <t>D - 65%</t>
+  </si>
+  <si>
+    <t>C456 - 18%</t>
+  </si>
+  <si>
+    <t>C123 - 18</t>
+  </si>
+  <si>
+    <t>B56 - 14%</t>
+  </si>
+  <si>
+    <t>B34 - 14%</t>
+  </si>
+  <si>
+    <t>B12 - 14%</t>
+  </si>
+  <si>
+    <t>MIN(A1+B12+C123+D)</t>
+  </si>
+  <si>
+    <t>Decision Variables</t>
+  </si>
+  <si>
+    <t>Objective Function</t>
+  </si>
+  <si>
+    <t>A3+B34-1.06A2-1.14B12=0</t>
+  </si>
+  <si>
+    <t>A4+C456-1.06A3-1.18C123=0</t>
+  </si>
+  <si>
+    <t>A2-1.06A1=0</t>
+  </si>
+  <si>
+    <t>A5+B56-1.06A4-1.14B34=0</t>
+  </si>
+  <si>
+    <t>Y8</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>B78 - 14%</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>B78</t>
+  </si>
+  <si>
+    <t>1.06A8+1.14B78&gt;=18000</t>
+  </si>
+  <si>
+    <t>&gt;=0</t>
+  </si>
+  <si>
+    <t>1.06A6+1.14B56+1.18C456-A7-B78&gt;=14000</t>
+  </si>
+  <si>
+    <t>1.06A5-A6&gt;= 12000</t>
+  </si>
+  <si>
+    <t>1.06A7+1.65D-A8&gt;=16000</t>
+  </si>
+  <si>
+    <t>A6+12000-1.06A5=0</t>
+  </si>
+  <si>
+    <t>14000+A7+B78-1.06A6-1.14B56-1.18C456=0</t>
+  </si>
+  <si>
+    <t>A8+16000-1.06A7-D=0</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>Returns</t>
+  </si>
+  <si>
+    <t>4D+2C123-B12-3A1&lt;=0</t>
+  </si>
+  <si>
+    <t>A3+3*B34&lt;=4x(A3+B34) = -3A3-B34&lt;=0</t>
+  </si>
+  <si>
+    <t>-3A4+2xC456&lt;=0</t>
+  </si>
+  <si>
+    <t>-3A5-B56&lt;=0</t>
+  </si>
+  <si>
+    <t>-3A7-B78&lt;=0</t>
+  </si>
+  <si>
+    <t>BID</t>
+  </si>
+  <si>
+    <t>ASK</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>Objective Function:</t>
+  </si>
+  <si>
+    <t>Sale Each Day</t>
+  </si>
+  <si>
+    <t>Buy  Each Day</t>
+  </si>
+  <si>
+    <t>Storage Cost Each Day</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Storage Per day</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>Si&lt;180</t>
+  </si>
+  <si>
+    <t>Bi &lt;= 200</t>
+  </si>
+  <si>
+    <t>Di &lt;300</t>
+  </si>
+  <si>
+    <t>S1&lt;=150</t>
+  </si>
+  <si>
+    <t>B1&lt;=150</t>
+  </si>
+  <si>
+    <t>Storage cant be less than 0</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximize 90P1+120P2+150P3 </t>
+  </si>
+  <si>
+    <t>2P1+2P2+1P3 &lt;=400</t>
+  </si>
+  <si>
+    <t>3P1+4P2+6P3&lt;=240</t>
+  </si>
+  <si>
+    <t>4P1+6P2+5P3 &lt;=320</t>
+  </si>
+  <si>
+    <t>total hours available is 665</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Inventory Cost</t>
+  </si>
+  <si>
+    <t>Objective function</t>
+  </si>
+  <si>
+    <t>M1 Demand</t>
+  </si>
+  <si>
+    <t>M2 Demand</t>
+  </si>
+  <si>
+    <t>M3 Demand</t>
+  </si>
+  <si>
+    <t>each plant can produce 300 max</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>HL</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>EL</t>
+  </si>
+  <si>
+    <t>WSP</t>
+  </si>
+  <si>
+    <t>Mfr Cost</t>
+  </si>
+  <si>
+    <t>Objective Fn (max(53HL+38FL+33SL+32ML+38EL))</t>
+  </si>
+  <si>
+    <t>PCB Consumption</t>
+  </si>
+  <si>
+    <t>R consmption</t>
+  </si>
+  <si>
+    <t>MC Consumption</t>
+  </si>
+  <si>
+    <t>AL Consumption</t>
+  </si>
+  <si>
+    <t>All units more than 500</t>
+  </si>
+  <si>
+    <t>FL-2HL&gt;=0</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>Reach</t>
+  </si>
+  <si>
+    <t>N1&lt;=10</t>
+  </si>
+  <si>
+    <t>N2&gt;10</t>
+  </si>
+  <si>
+    <t>N2&lt;=20</t>
+  </si>
+  <si>
+    <t>N3&lt;=30</t>
+  </si>
+  <si>
+    <t>N3&gt;20</t>
+  </si>
+  <si>
+    <t>T3&gt;10</t>
+  </si>
+  <si>
+    <t>T1&lt;=5</t>
+  </si>
+  <si>
+    <t>T2&lt;=10</t>
+  </si>
+  <si>
+    <t>T3&lt;=15</t>
+  </si>
+  <si>
+    <t>T2&gt;5</t>
+  </si>
+  <si>
+    <t>1000N1+900N2+800N3+12000T1+10000T2+8000T3 &lt;=145000</t>
+  </si>
+  <si>
+    <t>Worksheet: [CTRSolves.xlsx]3-25</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Variable Cells</t>
+  </si>
+  <si>
+    <t>$B$2</t>
+  </si>
+  <si>
+    <t>N1 Qty</t>
+  </si>
+  <si>
+    <t>$B$3</t>
+  </si>
+  <si>
+    <t>N2 Qty</t>
+  </si>
+  <si>
+    <t>$B$4</t>
+  </si>
+  <si>
+    <t>N3 Qty</t>
+  </si>
+  <si>
+    <t>$B$5</t>
+  </si>
+  <si>
+    <t>T1 Qty</t>
+  </si>
+  <si>
+    <t>$B$6</t>
+  </si>
+  <si>
+    <t>T2 Qty</t>
+  </si>
+  <si>
+    <t>$B$7</t>
+  </si>
+  <si>
+    <t>T3 Qty</t>
+  </si>
+  <si>
+    <t>$B$13</t>
+  </si>
+  <si>
+    <t>N2&gt;10 Qty</t>
+  </si>
+  <si>
+    <t>$B$14</t>
+  </si>
+  <si>
+    <t>N3&gt;20 Qty</t>
+  </si>
+  <si>
+    <t>$B$15</t>
+  </si>
+  <si>
+    <t>T2&gt;5 Qty</t>
+  </si>
+  <si>
+    <t>$B$16</t>
+  </si>
+  <si>
+    <t>T3&gt;10 Qty</t>
+  </si>
+  <si>
+    <t>$B$17</t>
+  </si>
+  <si>
+    <t>N1&lt;=10 Qty</t>
+  </si>
+  <si>
+    <t>$B$18</t>
+  </si>
+  <si>
+    <t>N2&lt;=20 Qty</t>
+  </si>
+  <si>
+    <t>$B$19</t>
+  </si>
+  <si>
+    <t>N3&lt;=30 Qty</t>
+  </si>
+  <si>
+    <t>$B$20</t>
+  </si>
+  <si>
+    <t>T1&lt;=5 Qty</t>
+  </si>
+  <si>
+    <t>$B$21</t>
+  </si>
+  <si>
+    <t>T2&lt;=10 Qty</t>
+  </si>
+  <si>
+    <t>T3&lt;=15 Qty</t>
+  </si>
+  <si>
+    <t>1000N1+900N2+800N3+12000T1+10000T2+8000T3 &lt;=145000 Qty</t>
+  </si>
+  <si>
+    <t>Microsoft Excel 16.48 Sensitivity Report</t>
+  </si>
+  <si>
+    <t>Report Created: 08/05/21 11:55:14 AM</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Reduced</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>Allowable</t>
+  </si>
+  <si>
+    <t>Increase</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>Shadow</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>R.H. Side</t>
+  </si>
+  <si>
+    <t>$B$11</t>
+  </si>
+  <si>
+    <t>$B$12</t>
+  </si>
+  <si>
+    <t>N1-N2&gt;=0</t>
+  </si>
+  <si>
+    <t>N2-N3&gt;=0</t>
+  </si>
+  <si>
+    <t>T1-T2&gt;=0</t>
+  </si>
+  <si>
+    <t>T2-T3&gt;=0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -473,16 +1534,87 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF211808"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -505,11 +1637,89 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -533,10 +1743,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -544,10 +1757,71 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -616,16 +1890,65 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>186266</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>652958</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>622299</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC1E404-52E0-2E4B-BC14-54CD9112ADFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7196666" y="0"/>
+          <a:ext cx="7073900" cy="3619500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>368939</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>106425</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>369158</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>154835</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -648,8 +1971,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7480300" y="0"/>
-          <a:ext cx="8857158" cy="3771900"/>
+          <a:off x="2837989" y="4427263"/>
+          <a:ext cx="6775918" cy="2928969"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -661,20 +1984,69 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>665239</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438108</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>58482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>719157</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>115469</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C92EFF1-F727-F145-A507-6EBA9EBD4854}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5900638" y="58482"/>
+          <a:ext cx="6064905" cy="5840842"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>444349</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>576338</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>355449</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>99062</xdr:rowOff>
+      <xdr:rowOff>65195</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -697,8 +2069,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8118929" y="0"/>
-          <a:ext cx="4855028" cy="2344241"/>
+          <a:off x="10426549" y="0"/>
+          <a:ext cx="4889500" cy="2334262"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -709,14 +2081,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>38094</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>475330</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>66827</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>543051</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>155734</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>68035</xdr:rowOff>
     </xdr:to>
@@ -741,8 +2113,248 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8315773" y="2312006"/>
-          <a:ext cx="4624897" cy="3062815"/>
+          <a:off x="10457530" y="2335894"/>
+          <a:ext cx="4658804" cy="3049208"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>982133</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>33491</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6A17EF1-7819-B84F-80FF-9AB71E9BADAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6620933" y="33491"/>
+          <a:ext cx="6375400" cy="5529108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>792666</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>42915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>259324</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>111404</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42BA4908-8A85-9945-8599-5F8565CE6E38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9849771" y="4454494"/>
+          <a:ext cx="8534903" cy="5883752"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>413894</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>120897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>704937</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>189386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D46E3C0-0975-A846-9F15-888EBC0A9500}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11877315" y="1123529"/>
+          <a:ext cx="8534903" cy="5883752"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>367633</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>178245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>701843</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>103908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B73316CE-14EE-9445-BABB-596ADF997182}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11831054" y="6996140"/>
+          <a:ext cx="8578070" cy="3936189"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>197838</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>158079</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>63105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{673CF1AE-0EA3-2249-A3CF-D00F6A773F20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4993863" y="2767416"/>
+          <a:ext cx="7414589" cy="4884136"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1050,6 +2662,3854 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72DFECEE-991D-7E44-A5A9-46BF976CE07A}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10">
+        <f>SUMPRODUCT(B1:B2,B7:B8)</f>
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12">
+        <f>B1</f>
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13">
+        <f>B2</f>
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14">
+        <f>SUMPRODUCT(B1:B2,B4:B5)</f>
+        <v>500</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C157013-62B8-164D-8AD8-6F201BDA63C5}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <v>999.99999999999989</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>3.15</v>
+      </c>
+      <c r="E2">
+        <f>C2-D2</f>
+        <v>1.85</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>2</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="J2">
+        <f>B2*SUM(F2:I2)</f>
+        <v>6499.9999999999991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>500</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>2.6</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E5" si="0">C3-D3</f>
+        <v>1.4</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="J3">
+        <f>B3*SUM(F3:I3)</f>
+        <v>2400.0000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4">
+        <v>80.000000000000128</v>
+      </c>
+      <c r="C4">
+        <v>3.2</v>
+      </c>
+      <c r="D4">
+        <v>2.16</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.04</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1.25</v>
+      </c>
+      <c r="J4">
+        <f>B4*SUM(F4:I4)</f>
+        <v>276.00000000000045</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+      <c r="C5">
+        <v>4.5</v>
+      </c>
+      <c r="D5">
+        <v>3.1</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1.75</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f>B5*SUM(F5:I5)</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="11">
+        <f>SUMPRODUCT(B2:B5,E2:E5)</f>
+        <v>2913.2000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="F8" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9">
+        <f>B2</f>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="F9">
+        <f>SUMPRODUCT(B2:B5,F2:F5)</f>
+        <v>1780.0000000000002</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <f>B3</f>
+        <v>500</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>400</v>
+      </c>
+      <c r="F10">
+        <f>SUMPRODUCT(B2:B5,G2:G5)</f>
+        <v>3180</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11">
+        <f>B3</f>
+        <v>500</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>500</v>
+      </c>
+      <c r="F11">
+        <f>SUMPRODUCT(B2:B5,H2:H5)</f>
+        <v>1366</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12">
+        <f>B4</f>
+        <v>80.000000000000128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>150</v>
+      </c>
+      <c r="F12">
+        <f>SUMPRODUCT(B2:B5,I2:I5)</f>
+        <v>3599.9999999999995</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13">
+        <f>B5</f>
+        <v>200</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:D17" si="1">F9</f>
+        <v>1780.0000000000002</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;=</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>3180</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;=</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>1366</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;=</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>3599.9999999999995</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="1"/>
+        <v>&lt;=</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19">
+        <f>0.6*B2</f>
+        <v>599.99999999999989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20">
+        <f>0.4*B3</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21">
+        <f>0.2*B4</f>
+        <v>16.000000000000025</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22">
+        <f>1*B5</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24">
+        <f>0.4*B2</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25">
+        <f>0.6*B3</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26">
+        <f>0.8*B4</f>
+        <v>64.000000000000099</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28">
+        <f>SUM(B19:B22)</f>
+        <v>1015.9999999999999</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29">
+        <f>SUM(B24:B27)</f>
+        <v>764.00000000000011</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29">
+        <v>800</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F8:H8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E5E905-C892-2948-8F85-B7E7FB2D6366}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.33203125" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" s="36">
+        <v>10</v>
+      </c>
+      <c r="E9" s="36">
+        <v>0</v>
+      </c>
+      <c r="F9" s="36">
+        <v>900</v>
+      </c>
+      <c r="G9" s="36">
+        <v>1E+30</v>
+      </c>
+      <c r="H9" s="36">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" s="36">
+        <v>10</v>
+      </c>
+      <c r="E10" s="36">
+        <v>0</v>
+      </c>
+      <c r="F10" s="36">
+        <v>700</v>
+      </c>
+      <c r="G10" s="36">
+        <v>1E+30</v>
+      </c>
+      <c r="H10" s="36">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="36">
+        <v>10</v>
+      </c>
+      <c r="E11" s="36">
+        <v>0</v>
+      </c>
+      <c r="F11" s="36">
+        <v>400</v>
+      </c>
+      <c r="G11" s="36">
+        <v>200</v>
+      </c>
+      <c r="H11" s="36">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="D12" s="36">
+        <v>1.8000000000000003</v>
+      </c>
+      <c r="E12" s="36">
+        <v>0</v>
+      </c>
+      <c r="F12" s="36">
+        <v>10000</v>
+      </c>
+      <c r="G12" s="36">
+        <v>1500</v>
+      </c>
+      <c r="H12" s="36">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="D13" s="36">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E13" s="36">
+        <v>0</v>
+      </c>
+      <c r="F13" s="36">
+        <v>7500</v>
+      </c>
+      <c r="G13" s="36">
+        <v>1250</v>
+      </c>
+      <c r="H13" s="36">
+        <v>833.33333333333337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="D14" s="35">
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="E14" s="35">
+        <v>0</v>
+      </c>
+      <c r="F14" s="35">
+        <v>5000</v>
+      </c>
+      <c r="G14" s="35">
+        <v>833.33333333333337</v>
+      </c>
+      <c r="H14" s="35">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="D19" s="36">
+        <v>20</v>
+      </c>
+      <c r="E19" s="36">
+        <v>0</v>
+      </c>
+      <c r="F19" s="36">
+        <v>10</v>
+      </c>
+      <c r="G19" s="36">
+        <v>10</v>
+      </c>
+      <c r="H19" s="36">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="36" t="s">
+        <v>318</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="D20" s="36">
+        <v>20</v>
+      </c>
+      <c r="E20" s="36">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="36">
+        <v>20</v>
+      </c>
+      <c r="G20" s="36">
+        <v>0</v>
+      </c>
+      <c r="H20" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>288</v>
+      </c>
+      <c r="D21" s="36">
+        <v>10</v>
+      </c>
+      <c r="E21" s="36">
+        <v>0</v>
+      </c>
+      <c r="F21" s="36">
+        <v>5</v>
+      </c>
+      <c r="G21" s="36">
+        <v>5</v>
+      </c>
+      <c r="H21" s="36">
+        <v>1E+30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>290</v>
+      </c>
+      <c r="D22" s="36">
+        <v>10</v>
+      </c>
+      <c r="E22" s="36">
+        <v>-1000</v>
+      </c>
+      <c r="F22" s="36">
+        <v>10</v>
+      </c>
+      <c r="G22" s="36">
+        <v>2.25</v>
+      </c>
+      <c r="H22" s="36">
+        <v>3.9999999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="36" t="s">
+        <v>287</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>292</v>
+      </c>
+      <c r="D23" s="36">
+        <v>10</v>
+      </c>
+      <c r="E23" s="36">
+        <v>150</v>
+      </c>
+      <c r="F23" s="36">
+        <v>10</v>
+      </c>
+      <c r="G23" s="36">
+        <v>17.999999999999996</v>
+      </c>
+      <c r="H23" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="D24" s="36">
+        <v>20</v>
+      </c>
+      <c r="E24" s="36">
+        <v>225</v>
+      </c>
+      <c r="F24" s="36">
+        <v>20</v>
+      </c>
+      <c r="G24" s="36">
+        <v>10</v>
+      </c>
+      <c r="H24" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="D25" s="36">
+        <v>30</v>
+      </c>
+      <c r="E25" s="36">
+        <v>0</v>
+      </c>
+      <c r="F25" s="36">
+        <v>30</v>
+      </c>
+      <c r="G25" s="36">
+        <v>1E+30</v>
+      </c>
+      <c r="H25" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="36" t="s">
+        <v>293</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="D26" s="36">
+        <v>1.8000000000000003</v>
+      </c>
+      <c r="E26" s="36">
+        <v>0</v>
+      </c>
+      <c r="F26" s="36">
+        <v>5</v>
+      </c>
+      <c r="G26" s="36">
+        <v>1E+30</v>
+      </c>
+      <c r="H26" s="36">
+        <v>3.1999999999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="D27" s="36">
+        <v>10</v>
+      </c>
+      <c r="E27" s="36">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="36">
+        <v>10</v>
+      </c>
+      <c r="G27" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="H27" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>301</v>
+      </c>
+      <c r="D28" s="36">
+        <v>10</v>
+      </c>
+      <c r="E28" s="36">
+        <v>0</v>
+      </c>
+      <c r="F28" s="36">
+        <v>15</v>
+      </c>
+      <c r="G28" s="36">
+        <v>1E+30</v>
+      </c>
+      <c r="H28" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="35" t="s">
+        <v>299</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="D29" s="35">
+        <v>145000</v>
+      </c>
+      <c r="E29" s="35">
+        <v>0.75</v>
+      </c>
+      <c r="F29" s="35">
+        <v>145000</v>
+      </c>
+      <c r="G29" s="35">
+        <v>31999.999999999996</v>
+      </c>
+      <c r="H29" s="35">
+        <v>17999.999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAE93F1-66EF-6B4F-9F2B-D2B1809036E8}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="53" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" s="7">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>900</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="B3" s="7">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>700</v>
+      </c>
+      <c r="D3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>400</v>
+      </c>
+      <c r="D4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="7">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>10000</v>
+      </c>
+      <c r="D5">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="7">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>7500</v>
+      </c>
+      <c r="D6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B7" s="7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>5000</v>
+      </c>
+      <c r="D7">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="26">
+        <f>SUMPRODUCT(B2:B7,C2:C7)</f>
+        <v>113500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" s="4">
+        <f>B3+B2</f>
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="4">
+        <f>B4+B3</f>
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B6+B5</f>
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B14" s="4">
+        <f>B7+B6</f>
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="4">
+        <f>B2</f>
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B16" s="4">
+        <f>B3+10</f>
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B17" s="4">
+        <f>B4+20</f>
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B18" s="4">
+        <f>B5</f>
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B19" s="4">
+        <f>B6+B5</f>
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" s="4">
+        <f>B7+B6</f>
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B21" s="4">
+        <f>SUMPRODUCT(B2:B7,D2:D7)</f>
+        <v>145000</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B22" s="4">
+        <f>B2-B3</f>
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23" s="4">
+        <f>B3-B4</f>
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B24" s="4">
+        <f>B5-B6</f>
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B25" s="4">
+        <f>B6-B7</f>
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C36188-49FE-574B-98BC-A331CB617F86}">
+  <dimension ref="A6:J51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="114" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="64.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="24"/>
+      <c r="D9" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="24"/>
+      <c r="F10" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="24"/>
+      <c r="H11" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="E13" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="J18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23">
+        <v>1.8189894035458565E-12</v>
+      </c>
+      <c r="C23">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25">
+        <v>11320.754716986574</v>
+      </c>
+      <c r="C25">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28">
+        <v>16981.132075471698</v>
+      </c>
+      <c r="C28">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29">
+        <v>18160.554379331184</v>
+      </c>
+      <c r="C29">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30">
+        <v>20703.031992437551</v>
+      </c>
+      <c r="C30">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31">
+        <v>12280.701754392232</v>
+      </c>
+      <c r="C31">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35">
+        <v>19988.564894229679</v>
+      </c>
+      <c r="C35">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="21">
+        <f>B21+B29+B33+B35</f>
+        <v>38149.119273560864</v>
+      </c>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B41">
+        <f>B25*C25-B26</f>
+        <v>12000.000000005768</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42">
+        <f>B26*C26+B31*C31+B34*C34-B27-B32</f>
+        <v>14000.000000007143</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B43">
+        <f>B27*C27+B35*C35</f>
+        <v>32981.13207547897</v>
+      </c>
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B44">
+        <f>B28*C28+B32*C32</f>
+        <v>18000</v>
+      </c>
+      <c r="C44" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B45">
+        <f>B22-B21*C21</f>
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46">
+        <f>B23+B30-B22*C22-B29*C29</f>
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47">
+        <f>B24+B34-B23*C23-B33*C33</f>
+        <v>-1.928128767758608E-12</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48">
+        <f>B25+B31-B24*C24-B30*C30</f>
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49">
+        <f>B26+12000-B25*C25</f>
+        <v>-5.7680153986439109E-9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B50">
+        <f>14000+B27+B32-B26*C26-B31*C31-B34*C34</f>
+        <v>-7.1431713877245784E-9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B51">
+        <f>B28+16000-1.06*B27-B35*C35</f>
+        <v>-7.2686816565692425E-9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B14:H14"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16681E36-29DE-A943-979A-EF305F4D50F2}">
+  <dimension ref="A6:J57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A24" zoomScale="114" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="64.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="24"/>
+      <c r="D9" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="24"/>
+      <c r="F10" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="24"/>
+      <c r="H11" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="E13" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="J18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22">
+        <v>5939</v>
+      </c>
+      <c r="C22">
+        <v>1.06</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23">
+        <v>6295.3400000000092</v>
+      </c>
+      <c r="C23">
+        <v>1.06</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1.06</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B25">
+        <v>1.0913936421275139E-11</v>
+      </c>
+      <c r="C25">
+        <v>1.06</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26">
+        <v>11381.365320376477</v>
+      </c>
+      <c r="C26">
+        <v>1.06</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27">
+        <v>64.247239593270521</v>
+      </c>
+      <c r="C27">
+        <v>1.06</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1.06</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29">
+        <v>653.44999999634638</v>
+      </c>
+      <c r="C29">
+        <v>1.06</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30">
+        <v>22555</v>
+      </c>
+      <c r="C30">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31">
+        <v>32385.760400000006</v>
+      </c>
+      <c r="C31">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32">
+        <v>25538.401535623536</v>
+      </c>
+      <c r="C32">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33">
+        <v>15181.879824564796</v>
+      </c>
+      <c r="C33">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>1.18</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>1.18</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36">
+        <v>10093</v>
+      </c>
+      <c r="C36">
+        <v>1.65</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="21">
+        <f>B22+B30+B34+B36</f>
+        <v>38587</v>
+      </c>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42">
+        <f>B26*C26-B27</f>
+        <v>12000.000000005795</v>
+      </c>
+      <c r="C42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43">
+        <f>B27*C27+B32*C32+B35*C35-B28-B33</f>
+        <v>14000.000000014901</v>
+      </c>
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B44">
+        <f>B28*C28+B36*C36</f>
+        <v>16653.45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B45">
+        <f>B29*C29+B33*C33</f>
+        <v>17999.999999999993</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46">
+        <f>B23-B22*C22</f>
+        <v>9.0949470177292824E-12</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47">
+        <f>B24+B31-B23*C23-B30*C30</f>
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48">
+        <f>B25+B35-B24*C24-B34*C34</f>
+        <v>1.0913936421275139E-11</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49">
+        <f>B26+B32-B25*C25-B31*C31</f>
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50">
+        <f>B27+12000-B26*C26</f>
+        <v>-5.7953002396970987E-9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51">
+        <f>14000+B28+B33-B27*C27-B32*C32-B35*C35</f>
+        <v>-1.4901161193847656E-8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B52">
+        <f>B29+16000-1.06*B28-B36*C36</f>
+        <v>-3.6561687011271715E-9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B53">
+        <f>4*B36+2*B34-B30-3*B22</f>
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54">
+        <f>-3*B24-B31</f>
+        <v>-32385.760400000006</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B55">
+        <f>-3*B25+2*B35</f>
+        <v>-3.2741809263825417E-11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B56">
+        <f>-3*B26-B32</f>
+        <v>-59682.497496752971</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57">
+        <f>-3*B28-B33</f>
+        <v>-15181.879824564796</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADEC8F4-637C-1248-98DB-83E4C301C296}">
+  <dimension ref="A1:Q57"/>
+  <sheetViews>
+    <sheetView topLeftCell="A29" zoomScale="161" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B1" s="9">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9">
+        <v>4</v>
+      </c>
+      <c r="F1" s="9">
+        <v>5</v>
+      </c>
+      <c r="G1" s="9">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9">
+        <v>7</v>
+      </c>
+      <c r="I1" s="9">
+        <v>8</v>
+      </c>
+      <c r="J1" s="9">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="27">
+        <v>3.06</v>
+      </c>
+      <c r="C2" s="28">
+        <v>4.01</v>
+      </c>
+      <c r="D2" s="28">
+        <v>6.03</v>
+      </c>
+      <c r="E2" s="28">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="F2" s="28">
+        <v>4.01</v>
+      </c>
+      <c r="G2" s="28">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="H2" s="28">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I2" s="28">
+        <v>4.08</v>
+      </c>
+      <c r="J2" s="28">
+        <v>3.01</v>
+      </c>
+      <c r="K2" s="28">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="27">
+        <v>3.22</v>
+      </c>
+      <c r="C3" s="28">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D3" s="28">
+        <v>6.13</v>
+      </c>
+      <c r="E3" s="28">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="F3" s="28">
+        <v>4.05</v>
+      </c>
+      <c r="G3" s="28">
+        <v>5.12</v>
+      </c>
+      <c r="H3" s="28">
+        <v>5.28</v>
+      </c>
+      <c r="I3" s="28">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="J3" s="28">
+        <v>3.15</v>
+      </c>
+      <c r="K3" s="28">
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="30"/>
+      <c r="B6" s="5">
+        <v>150</v>
+      </c>
+      <c r="C6" s="5">
+        <v>180</v>
+      </c>
+      <c r="D6" s="5">
+        <v>180</v>
+      </c>
+      <c r="E6" s="5">
+        <v>180</v>
+      </c>
+      <c r="F6" s="5">
+        <v>180</v>
+      </c>
+      <c r="G6" s="5">
+        <v>180</v>
+      </c>
+      <c r="H6" s="5">
+        <v>180</v>
+      </c>
+      <c r="I6" s="5">
+        <v>180</v>
+      </c>
+      <c r="J6" s="5">
+        <v>180</v>
+      </c>
+      <c r="K6" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="30"/>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>180</v>
+      </c>
+      <c r="D8" s="5">
+        <v>180</v>
+      </c>
+      <c r="E8" s="5">
+        <v>180</v>
+      </c>
+      <c r="F8" s="5">
+        <v>180</v>
+      </c>
+      <c r="G8" s="5">
+        <v>180</v>
+      </c>
+      <c r="H8" s="5">
+        <v>180</v>
+      </c>
+      <c r="I8" s="5">
+        <v>180</v>
+      </c>
+      <c r="J8" s="5">
+        <v>180</v>
+      </c>
+      <c r="K8" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="30"/>
+      <c r="B10" s="5">
+        <f>B8-B6</f>
+        <v>-150</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" ref="C10:K10" si="0">C8-C6</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="30"/>
+      <c r="B12" s="5">
+        <f>0.05*B2*B10</f>
+        <v>-22.950000000000003</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" ref="C12:K12" si="1">0.05*C2*C10</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="9">
+        <f>1000*(SUMPRODUCT(B6:K6,B3:K3)-SUMPRODUCT(B8:K8,B2:K2)-AVERAGE(B10:K10)*0.05)</f>
+        <v>681750</v>
+      </c>
+      <c r="C13" s="5">
+        <f>SUMPRODUCT(B6:K6,B3:K3)</f>
+        <v>7760.4</v>
+      </c>
+      <c r="D13" s="5">
+        <f>SUMPRODUCT(B8:K8,B2:K2)</f>
+        <v>7079.4</v>
+      </c>
+      <c r="E13" s="5">
+        <f>AVERAGE(B10:K10)*0.05</f>
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16" s="5">
+        <f>B10</f>
+        <v>-150</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="29"/>
+      <c r="B17" s="5">
+        <f>C10</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="29"/>
+      <c r="B18" s="5">
+        <f>D10</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="29"/>
+      <c r="B19" s="5">
+        <f>E10</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="29"/>
+      <c r="B20" s="5">
+        <f>F10</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="29"/>
+      <c r="B21" s="5">
+        <f>G10</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="29"/>
+      <c r="B22" s="5">
+        <f>H10</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="29"/>
+      <c r="B23" s="5">
+        <f>I10</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="29"/>
+      <c r="B24" s="5">
+        <f>J10</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="29"/>
+      <c r="B25" s="5">
+        <f>K10</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B6</f>
+        <v>150</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="29"/>
+      <c r="B27" s="5">
+        <f>C6</f>
+        <v>180</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="29"/>
+      <c r="B28" s="5">
+        <f>D6</f>
+        <v>180</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="29"/>
+      <c r="B29" s="5">
+        <f>E6</f>
+        <v>180</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="29"/>
+      <c r="B30" s="5">
+        <f>F6</f>
+        <v>180</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="29"/>
+      <c r="B31" s="5">
+        <f>G6</f>
+        <v>180</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="29"/>
+      <c r="B32" s="5">
+        <f>H6</f>
+        <v>180</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="29"/>
+      <c r="B33" s="5">
+        <f>I6</f>
+        <v>180</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="5">
+        <v>180</v>
+      </c>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" s="29"/>
+      <c r="B34" s="5">
+        <f>J6</f>
+        <v>180</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="29"/>
+      <c r="B35" s="5">
+        <f>K6</f>
+        <v>180</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="B36" s="5">
+        <f>B8</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" s="29"/>
+      <c r="B37" s="5">
+        <f>C8</f>
+        <v>180</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" s="29"/>
+      <c r="B38" s="5">
+        <f>D8</f>
+        <v>180</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="29"/>
+      <c r="B39" s="5">
+        <f>E8</f>
+        <v>180</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" s="29"/>
+      <c r="B40" s="5">
+        <f>F8</f>
+        <v>180</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" s="29"/>
+      <c r="B41" s="5">
+        <f>G8</f>
+        <v>180</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" s="29"/>
+      <c r="B42" s="5">
+        <f>H8</f>
+        <v>180</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" s="29"/>
+      <c r="B43" s="5">
+        <f>I8</f>
+        <v>180</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="29"/>
+      <c r="B44" s="5">
+        <f>J8</f>
+        <v>180</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" s="29"/>
+      <c r="B45" s="5">
+        <f>K8</f>
+        <v>180</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B46" s="5">
+        <f>B6</f>
+        <v>150</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B47" s="5">
+        <f>B8</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="31" t="s">
+        <v>213</v>
+      </c>
+      <c r="B48" s="5">
+        <f t="shared" ref="B48:D57" si="2">B16</f>
+        <v>-150</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="31"/>
+      <c r="B49" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="31"/>
+      <c r="B50" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="31"/>
+      <c r="B51" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="31"/>
+      <c r="B52" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="31"/>
+      <c r="B53" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="31"/>
+      <c r="B54" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="31"/>
+      <c r="B55" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="31"/>
+      <c r="B56" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="31"/>
+      <c r="B57" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A26:A35"/>
+    <mergeCell ref="A36:A45"/>
+    <mergeCell ref="A16:A25"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9623823A-1CB7-2247-9287-191DEC7604AB}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.33203125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2">
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="C2" s="6">
+        <v>800</v>
+      </c>
+      <c r="D2" s="6">
+        <v>140</v>
+      </c>
+      <c r="E2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3">
+        <v>5.7142857142857144</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="6">
+        <v>70</v>
+      </c>
+      <c r="E3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="6">
+        <f>SUMPRODUCT(B2:B3,C2:C3)</f>
+        <v>8000</v>
+      </c>
+      <c r="D4" s="6">
+        <f>SUMPRODUCT(B2:B3,D2:D3)</f>
+        <v>800</v>
+      </c>
+      <c r="E4">
+        <f>SUMPRODUCT(B2:B3,E2:E3)</f>
+        <v>5.7142857142857153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="6">
+        <v>8000</v>
+      </c>
+      <c r="D6" s="6">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8">
+        <f>2*B2/3-B3/3</f>
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92A100B-84D3-7D49-A014-DADA7F0E93E7}">
   <dimension ref="A2:K15"/>
   <sheetViews>
@@ -1328,7 +6788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBB62C86-FB6E-AE4F-8691-1CFB952F445A}">
   <dimension ref="A1:I11"/>
   <sheetViews>
@@ -1349,13 +6809,13 @@
       <c r="B1">
         <v>10</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="E1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -1364,69 +6824,69 @@
       <c r="B2">
         <v>25</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+        <v>79</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+        <v>80</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>84</v>
+      <c r="A6" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="B6">
         <f>300000*0.05*B1+500000*0.05*B2 - 5000*B1-2000*B2</f>
         <v>675000</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
@@ -1481,7 +6941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E05A814-BC28-0146-83E2-1C63CAA4A06B}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -1680,7 +7140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9CA4D2F-C5EB-AE4A-B885-D12B876A11FB}">
   <dimension ref="A1:I31"/>
   <sheetViews>
@@ -2096,205 +7556,810 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757A7937-751E-B54C-931D-994560DECBFD}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A537FA-38A8-1E4D-B8AA-EFB9BC83B182}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>214</v>
+      </c>
+      <c r="E7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B8">
+        <v>6.6666666666667007</v>
+      </c>
+      <c r="C8">
+        <v>90</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B9">
+        <v>41.249999999999972</v>
+      </c>
+      <c r="C9">
+        <v>120</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10">
+        <v>9.1666666666666679</v>
+      </c>
+      <c r="C10">
+        <v>150</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="32">
+        <f>SUMPRODUCT(B8:B10,C8:C10)</f>
+        <v>6924.9999999999991</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B12">
+        <f>SUMPRODUCT(B8:B10,D8:D10)</f>
+        <v>105.00000000000001</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13">
+        <f>SUMPRODUCT(B8:B10,E8:E10)</f>
+        <v>240</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14">
+        <f>SUMPRODUCT(B8:B10,F8:F10)</f>
+        <v>320</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15">
+        <f>SUMPRODUCT(B8:B10,D8:D10)+SUMPRODUCT(B8:B10,E8:E10)+SUMPRODUCT(B8:B10,F8:F10)</f>
+        <v>665</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>665</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C157013-62B8-164D-8AD8-6F201BDA63C5}">
-  <dimension ref="A1:H21"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757A7937-751E-B54C-931D-994560DECBFD}">
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScale="168" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView zoomScale="179" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>69</v>
+      <c r="C1" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>79</v>
+        <v>227</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>61</v>
+      <c r="A2" s="7" t="s">
+        <v>225</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>400</v>
       </c>
       <c r="D2">
-        <v>3.15</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6">
-        <v>2</v>
-      </c>
-      <c r="G2" s="6">
-        <v>1</v>
-      </c>
-      <c r="H2" s="6">
-        <v>2.5</v>
+        <v>300</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
+      <c r="A3" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>360</v>
       </c>
       <c r="D3">
-        <v>2.6</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1.5</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="H3" s="6">
-        <v>1.6</v>
+        <v>300</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>300</v>
+      </c>
+      <c r="G3">
+        <v>300</v>
+      </c>
+      <c r="H3">
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4">
-        <v>3.2</v>
-      </c>
-      <c r="D4">
-        <v>2.16</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>4.5</v>
-      </c>
-      <c r="D5">
-        <v>3.1</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1.75</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1</v>
+      <c r="F4">
+        <v>300</v>
+      </c>
+      <c r="G4">
+        <v>400</v>
+      </c>
+      <c r="H4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6">
+        <f>SUMPRODUCT(F2:F3,C2:C3)+SUMPRODUCT(G2:G3,C2:C3)+SUMPRODUCT(H2:H3,C2:C3)+(300-SUM(F2:F3)*30+(400-SUM(G2:G3))*30)+(500-SUM(H2:H3))*30</f>
+        <v>435300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="B8">
+        <f>SUM(F2:F3)</f>
+        <v>300</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8">
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>63</v>
+        <v>231</v>
+      </c>
+      <c r="B9">
+        <f>SUM(G2:G3)-(SUM(F2:F3)-300)</f>
+        <v>400</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9">
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>64</v>
+        <v>232</v>
+      </c>
+      <c r="B10">
+        <f>SUM(H2:H3)-(SUM(G2:G3)-400)</f>
+        <v>500</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>65</v>
+      <c r="A11" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11">
+        <f>F2</f>
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>66</v>
+      <c r="A12" s="33"/>
+      <c r="B12">
+        <f>F3</f>
+        <v>300</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>67</v>
+      <c r="A13" s="33"/>
+      <c r="B13">
+        <f>G2</f>
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="33"/>
+      <c r="B14">
+        <f>G3</f>
+        <v>300</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>70</v>
+      <c r="A15" s="33"/>
+      <c r="B15">
+        <f>H2</f>
+        <v>200</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>75</v>
+      <c r="A16" s="33"/>
+      <c r="B16">
+        <f>H3</f>
+        <v>300</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057980AC-11FC-9E41-87FE-7F859AA008C3}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView zoomScale="166" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2">
+        <v>499.99999999999989</v>
+      </c>
+      <c r="C2">
+        <v>999.99999999999977</v>
+      </c>
+      <c r="D2">
+        <v>1500.0000000000007</v>
+      </c>
+      <c r="E2">
+        <v>2249.9999999999995</v>
+      </c>
+      <c r="F2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6">
+        <v>0.75</v>
+      </c>
+      <c r="C6">
+        <v>0.6</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>0.65</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8">
+        <v>189</v>
+      </c>
+      <c r="C8">
+        <v>149</v>
+      </c>
+      <c r="D8">
+        <v>129</v>
+      </c>
+      <c r="E8">
+        <v>169</v>
+      </c>
+      <c r="F8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9">
+        <v>136</v>
+      </c>
+      <c r="C9">
+        <v>101</v>
+      </c>
+      <c r="D9">
+        <v>96</v>
+      </c>
+      <c r="E9">
+        <v>137</v>
+      </c>
+      <c r="F9">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10">
+        <f>B8-B9</f>
+        <v>53</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:F10" si="0">C8-C9</f>
+        <v>48</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13" s="32">
+        <f>SUMPRODUCT(B10:F10,B2:F2)</f>
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15">
+        <f>SUMPRODUCT(B2:F2,B3:F3)</f>
+        <v>60500</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="B16">
+        <f>SUMPRODUCT(B4:F4,B2:F2)</f>
+        <v>100000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B17">
+        <f>SUMPRODUCT(B5:F5,B2:F2)</f>
+        <v>30000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18">
+        <f>SUMPRODUCT(B6:F6,B2:F2)</f>
+        <v>3687.5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19">
+        <f>B2</f>
+        <v>499.99999999999989</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="34"/>
+      <c r="B20">
+        <f>C2</f>
+        <v>999.99999999999977</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="34"/>
+      <c r="B21">
+        <f>D2</f>
+        <v>1500.0000000000007</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="34"/>
+      <c r="B22">
+        <f>E2</f>
+        <v>2249.9999999999995</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="34"/>
+      <c r="B23">
+        <f>F2</f>
+        <v>500</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B24">
+        <f>C2-2*B2</f>
+        <v>0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A19:A23"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
